--- a/biology/Botanique/Selinum/Selinum.xlsx
+++ b/biology/Botanique/Selinum/Selinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sélin
-Selinum, le Sélin[1], est un genre de plantes à fleurs herbacées de la famille des Apiaceae.
+Selinum, le Sélin, est un genre de plantes à fleurs herbacées de la famille des Apiaceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un genre paléarctique présent en Europe, en Asie centrale et en Chine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un genre paléarctique présent en Europe, en Asie centrale et en Chine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (12 novembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (12 novembre 2023) :
 Selinum alatum (M.Bieb.) Poir.
 Selinum broteroi Hoffmanns. &amp; Link
 Selinum carvifolia (L.) L.
@@ -557,7 +573,7 @@
 Selinum physospermifolium (Albov) Hand
 Selinum rhodopetalum (Pimenov &amp; Kljuykov) Hand
 Selinum vaginatum (Edgew.) C.B.Clarke
-Selon GBIF       (12 novembre 2023)[3] :
+Selon GBIF       (12 novembre 2023) :
 Selinum alaicum (Pimenov)
 Selinum alatum (M.Bieb.) Poir.
 Selinum angelicastrum Link ex Spreng., 1824
@@ -614,10 +630,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selinum L., 1762 est un nom conservé (nom. cons., CINB 14.10 &amp; App. III) par rapport à l'homonyme antérieur (CINB 53) Selinum L., 1753, nom. rej.[4], synonyme de Peucedanum. Selinum carvifolia (L.) L. est l'espèce type[5].
-Selinum L., 1762 a pour synonymes selon Plants of the World online (POWO)                (12 novembre 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selinum L., 1762 est un nom conservé (nom. cons., CINB 14.10 &amp; App. III) par rapport à l'homonyme antérieur (CINB 53) Selinum L., 1753, nom. rej., synonyme de Peucedanum. Selinum carvifolia (L.) L. est l'espèce type.
+Selinum L., 1762 a pour synonymes selon Plants of the World online (POWO)                (12 novembre 2023) :
 (synonymes homotypiques)
 Carvi Bernh. in Syst. Verz. Erf.: 114 (1800)
 Carvifolia C.Bauhin ex Vill. in Hist. Pl. Dauphiné 2: 629 (1787)
